--- a/Code/Results/Cases/Case_3_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.390435809066844</v>
+        <v>1.750222116487407</v>
       </c>
       <c r="C2">
-        <v>0.4606849029632372</v>
+        <v>0.2192118439806734</v>
       </c>
       <c r="D2">
-        <v>0.08024414560394888</v>
+        <v>0.1574119317645426</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7489939045798764</v>
+        <v>1.622827736906565</v>
       </c>
       <c r="G2">
-        <v>0.0008081405716628965</v>
+        <v>0.002480119020032568</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06335610096177469</v>
+        <v>0.1934229518229458</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3582534864455909</v>
+        <v>0.387088195569774</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.847303761736868</v>
+        <v>4.057269817091935</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.95015660221685</v>
+        <v>1.618498293285825</v>
       </c>
       <c r="C3">
-        <v>0.416496299052767</v>
+        <v>0.2043767215185426</v>
       </c>
       <c r="D3">
-        <v>0.07478223057336919</v>
+        <v>0.1564843848184054</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7318503025393142</v>
+        <v>1.634538893414614</v>
       </c>
       <c r="G3">
-        <v>0.0008129612515082188</v>
+        <v>0.002483291928523048</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06683808409634295</v>
+        <v>0.1957603801878491</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.318931084741422</v>
+        <v>0.3773004141941527</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.817843985146112</v>
+        <v>4.093746855057077</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.680629786366922</v>
+        <v>1.537787685808667</v>
       </c>
       <c r="C4">
-        <v>0.389400424088393</v>
+        <v>0.1952354047396625</v>
       </c>
       <c r="D4">
-        <v>0.07148297536547688</v>
+        <v>0.1559558209057244</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7233074844750149</v>
+        <v>1.642764320481668</v>
       </c>
       <c r="G4">
-        <v>0.0008160159657407146</v>
+        <v>0.002485344211505129</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0691087544818787</v>
+        <v>0.1972807045931555</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2950003807408876</v>
+        <v>0.3714090804819818</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.80542287577444</v>
+        <v>4.118959615442549</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.570951221441533</v>
+        <v>1.504941787659163</v>
       </c>
       <c r="C5">
-        <v>0.3783639060208657</v>
+        <v>0.1915023352285345</v>
       </c>
       <c r="D5">
-        <v>0.07015142491643189</v>
+        <v>0.1557507713086181</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7203000982040138</v>
+        <v>1.646376262184276</v>
       </c>
       <c r="G5">
-        <v>0.0008172851390955043</v>
+        <v>0.002486206790660644</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07006665174038229</v>
+        <v>0.1979216660656231</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2852967081386026</v>
+        <v>0.3690382740585392</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.80171298219264</v>
+        <v>4.129941222172448</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.552747276541595</v>
+        <v>1.499490487914898</v>
       </c>
       <c r="C6">
-        <v>0.3765315132567935</v>
+        <v>0.1908819919798646</v>
       </c>
       <c r="D6">
-        <v>0.06993108138448889</v>
+        <v>0.1557173491299366</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7198286433112813</v>
+        <v>1.64699172131369</v>
       </c>
       <c r="G6">
-        <v>0.0008174973697597945</v>
+        <v>0.002486351609500339</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07022765520973451</v>
+        <v>0.1980293910346829</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2836881860033316</v>
+        <v>0.3686464184814469</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.801176535209635</v>
+        <v>4.131807398497898</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679150051847103</v>
+        <v>1.537344532389</v>
       </c>
       <c r="C7">
-        <v>0.3892515652246402</v>
+        <v>0.1951850909314601</v>
       </c>
       <c r="D7">
-        <v>0.07146496624659449</v>
+        <v>0.1559530135882241</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.723265038977992</v>
+        <v>1.64281197984613</v>
       </c>
       <c r="G7">
-        <v>0.0008160329830848589</v>
+        <v>0.002485355738162554</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06912154211934141</v>
+        <v>0.1972892620951763</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2948693249879426</v>
+        <v>0.3713769854017528</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.805367463389842</v>
+        <v>4.119104854912337</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.238430777943336</v>
+        <v>1.704769949813283</v>
       </c>
       <c r="C8">
-        <v>0.4454387814039364</v>
+        <v>0.2141035887891007</v>
       </c>
       <c r="D8">
-        <v>0.07834912117973403</v>
+        <v>0.1570836408566194</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7426557388683293</v>
+        <v>1.626650877250228</v>
       </c>
       <c r="G8">
-        <v>0.0008097833851663987</v>
+        <v>0.002481191479799365</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06452865417478204</v>
+        <v>0.1942112333832888</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.344647474350765</v>
+        <v>0.383688901539557</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.835924410407131</v>
+        <v>4.069262197124914</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.343912839674601</v>
+        <v>2.034356300985678</v>
       </c>
       <c r="C9">
-        <v>0.5561006445455803</v>
+        <v>0.2509352986814122</v>
       </c>
       <c r="D9">
-        <v>0.09231748581437671</v>
+        <v>0.1596239287292249</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7976126219579811</v>
+        <v>1.603178052057622</v>
       </c>
       <c r="G9">
-        <v>0.000798255340157349</v>
+        <v>0.002473847774827639</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0566126375747622</v>
+        <v>0.1888502407347907</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4442204580273739</v>
+        <v>0.4087653715356367</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.944333363983418</v>
+        <v>3.993901416013443</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.165020491273935</v>
+        <v>2.277206422397001</v>
       </c>
       <c r="C10">
-        <v>0.6379951941945308</v>
+        <v>0.2778224170957628</v>
       </c>
       <c r="D10">
-        <v>0.1029220810168496</v>
+        <v>0.1616851469138112</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8500902312330112</v>
+        <v>1.590956812850067</v>
       </c>
       <c r="G10">
-        <v>0.0007901922090834264</v>
+        <v>0.002468948619980131</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05151684686893532</v>
+        <v>0.185322255122065</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5189735513960727</v>
+        <v>0.4277510959313133</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.058783444118092</v>
+        <v>3.952234099686763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.541375561374025</v>
+        <v>2.387825285270878</v>
       </c>
       <c r="C11">
-        <v>0.6754534824258656</v>
+        <v>0.2900145468788082</v>
       </c>
       <c r="D11">
-        <v>0.1078343502077104</v>
+        <v>0.1626647376977175</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8770203596505155</v>
+        <v>1.586491067096347</v>
       </c>
       <c r="G11">
-        <v>0.0007866035420355643</v>
+        <v>0.002466826543717578</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0493682477689692</v>
+        <v>0.1838063052253265</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5534254652275052</v>
+        <v>0.4365089945096656</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.119673455005056</v>
+        <v>3.936265770853993</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.68437678803042</v>
+        <v>2.42973305689452</v>
       </c>
       <c r="C12">
-        <v>0.689673929469194</v>
+        <v>0.2946255729230245</v>
       </c>
       <c r="D12">
-        <v>0.1097084025901296</v>
+        <v>0.1630416717799363</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8876967997221783</v>
+        <v>1.584957517215685</v>
       </c>
       <c r="G12">
-        <v>0.0007852552265582829</v>
+        <v>0.002466038211972505</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04858021532078993</v>
+        <v>0.1832450360204323</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5665444816886804</v>
+        <v>0.4398426609871819</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.144115476565588</v>
+        <v>3.930649393887961</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.653556104320046</v>
+        <v>2.420706664461477</v>
       </c>
       <c r="C13">
-        <v>0.6866095999878894</v>
+        <v>0.293632771198105</v>
       </c>
       <c r="D13">
-        <v>0.1093041542377833</v>
+        <v>0.1629602268480639</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8853754986464679</v>
+        <v>1.585280784406663</v>
       </c>
       <c r="G13">
-        <v>0.0007855451502948491</v>
+        <v>0.002466207316121626</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04874877337282157</v>
+        <v>0.1833653466698131</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5637156824424068</v>
+        <v>0.439123932465975</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.138787946648904</v>
+        <v>3.931839818627168</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.553130199148256</v>
+        <v>2.391272697619286</v>
       </c>
       <c r="C14">
-        <v>0.67662265041551</v>
+        <v>0.2903940179037647</v>
       </c>
       <c r="D14">
-        <v>0.1079882441570419</v>
+        <v>0.1626956286162908</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.877888891122268</v>
+        <v>1.586361742436466</v>
       </c>
       <c r="G14">
-        <v>0.0007864924067658833</v>
+        <v>0.002466761381977063</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04930289555873735</v>
+        <v>0.1837598729912777</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5545032629978408</v>
+        <v>0.4367829128038068</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.121655877792506</v>
+        <v>3.935795074621552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.49168182555826</v>
+        <v>2.37324593179477</v>
       </c>
       <c r="C15">
-        <v>0.6705102203867739</v>
+        <v>0.2884094158258392</v>
       </c>
       <c r="D15">
-        <v>0.1071840565300661</v>
+        <v>0.1625343325481339</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8733666621430416</v>
+        <v>1.587044383053851</v>
       </c>
       <c r="G15">
-        <v>0.0007870739899135616</v>
+        <v>0.00246710274761001</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04964568254946045</v>
+        <v>0.1840031970718385</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5488701428499212</v>
+        <v>0.4353512103279371</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.111345847367659</v>
+        <v>3.938273875793243</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.140488154409979</v>
+        <v>2.269979963226774</v>
       </c>
       <c r="C16">
-        <v>0.6355518522502734</v>
+        <v>0.2770248259375592</v>
       </c>
       <c r="D16">
-        <v>0.1026029276767346</v>
+        <v>0.1616219682409152</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8483950663923707</v>
+        <v>1.591270690431656</v>
       </c>
       <c r="G16">
-        <v>0.0007904282682145714</v>
+        <v>0.002469089441059445</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05166077593902507</v>
+        <v>0.185423115661175</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5167317416759545</v>
+        <v>0.4271811693815835</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.054991367585927</v>
+        <v>3.953337850201791</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.92581946307655</v>
+        <v>2.206665333199453</v>
       </c>
       <c r="C17">
-        <v>0.6141627045892619</v>
+        <v>0.2700305801081981</v>
       </c>
       <c r="D17">
-        <v>0.09981596428581696</v>
+        <v>0.1610729696767308</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8338856577260287</v>
+        <v>1.594143708839454</v>
       </c>
       <c r="G17">
-        <v>0.0007925057900558827</v>
+        <v>0.00247033545742455</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05294122358368725</v>
+        <v>0.1863169696901767</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4971361175563231</v>
+        <v>0.4222000213632526</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.022759257637944</v>
+        <v>3.963344732524575</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.802609008892603</v>
+        <v>2.170262214059733</v>
       </c>
       <c r="C18">
-        <v>0.6018790175828315</v>
+        <v>0.2660040239807415</v>
       </c>
       <c r="D18">
-        <v>0.09822119949553354</v>
+        <v>0.1607611497901331</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8258255370987797</v>
+        <v>1.595899127734071</v>
       </c>
       <c r="G18">
-        <v>0.0007937082382201277</v>
+        <v>0.002471062168678399</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05369357902539384</v>
+        <v>0.1868394632790302</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4859066872841282</v>
+        <v>0.4193464155508622</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.005043524000655</v>
+        <v>3.969381452574538</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.760934708325124</v>
+        <v>2.157939173533293</v>
       </c>
       <c r="C19">
-        <v>0.5977230110292737</v>
+        <v>0.2646400824144166</v>
       </c>
       <c r="D19">
-        <v>0.09768261679599988</v>
+        <v>0.1606562526672519</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8231443869062218</v>
+        <v>1.596511153913298</v>
       </c>
       <c r="G19">
-        <v>0.0007941166791772253</v>
+        <v>0.002471309946452499</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05395100464492941</v>
+        <v>0.1870178086774352</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4821114634390824</v>
+        <v>0.4183822005863362</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.999183332723049</v>
+        <v>3.971473616725632</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.948643732210087</v>
+        <v>2.213403872320043</v>
       </c>
       <c r="C20">
-        <v>0.6164376267209661</v>
+        <v>0.2707755093222488</v>
       </c>
       <c r="D20">
-        <v>0.1001117818722221</v>
+        <v>0.1611310030769459</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8354004092242633</v>
+        <v>1.593827215952203</v>
       </c>
       <c r="G20">
-        <v>0.0007922838621627905</v>
+        <v>0.002470201778706084</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05280326611151054</v>
+        <v>0.1862209509104282</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4992177545400409</v>
+        <v>0.4227290926379226</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.026104406138472</v>
+        <v>3.962250390053129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.582613947149184</v>
+        <v>2.39991767299955</v>
       </c>
       <c r="C21">
-        <v>0.6795550333602591</v>
+        <v>0.2913454796458836</v>
       </c>
       <c r="D21">
-        <v>0.1083743720013715</v>
+        <v>0.1627731854797929</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8800745747890346</v>
+        <v>1.586039961521095</v>
       </c>
       <c r="G21">
-        <v>0.0007862138923262688</v>
+        <v>0.002466598225905713</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04913943158011946</v>
+        <v>0.1836436440007212</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5572071249697927</v>
+        <v>0.4374700606148139</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.126649447044286</v>
+        <v>3.934621628526401</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.999810319915127</v>
+        <v>2.521923917597803</v>
       </c>
       <c r="C22">
-        <v>0.7210180474856145</v>
+        <v>0.304754814597004</v>
       </c>
       <c r="D22">
-        <v>0.1138560021029846</v>
+        <v>0.1638813068799223</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.912081695344753</v>
+        <v>1.581868868056631</v>
       </c>
       <c r="G22">
-        <v>0.0007823084048552833</v>
+        <v>0.002464331965259768</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04689473087563734</v>
+        <v>0.1820337628186319</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5955355564739619</v>
+        <v>0.4472045394236517</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.200490713537476</v>
+        <v>3.919074303557466</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.776855858251224</v>
+        <v>2.456797617723453</v>
       </c>
       <c r="C23">
-        <v>0.6988667530026191</v>
+        <v>0.2976012286509331</v>
       </c>
       <c r="D23">
-        <v>0.1109224675992238</v>
+        <v>0.1632867068651649</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8947280811629099</v>
+        <v>1.584010949660509</v>
       </c>
       <c r="G23">
-        <v>0.0007843874708104215</v>
+        <v>0.002465533403548874</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04807863174416305</v>
+        <v>0.1828861672900146</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5750366461108314</v>
+        <v>0.4419999394708753</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.160295814606513</v>
+        <v>3.927142222324818</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.938324245979913</v>
+        <v>2.210357387024317</v>
       </c>
       <c r="C24">
-        <v>0.6154090937326657</v>
+        <v>0.2704387438494678</v>
       </c>
       <c r="D24">
-        <v>0.09997801947761786</v>
+        <v>0.1611047543171225</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8347147160644113</v>
+        <v>1.593969979436423</v>
       </c>
       <c r="G24">
-        <v>0.0007923841705588982</v>
+        <v>0.002470262182646695</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0528655862883145</v>
+        <v>0.1862643341962045</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4982765338660471</v>
+        <v>0.4224898679720752</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.024589534746383</v>
+        <v>3.962744258856304</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.043562800951349</v>
+        <v>1.945066143162308</v>
       </c>
       <c r="C25">
-        <v>0.5260830706802153</v>
+        <v>0.2410010339577866</v>
       </c>
       <c r="D25">
-        <v>0.08848294536975487</v>
+        <v>0.1589023406372263</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7807568308232433</v>
+        <v>1.608646749576579</v>
       </c>
       <c r="G25">
-        <v>0.0008012997758545543</v>
+        <v>0.002475746926812517</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05863190198089008</v>
+        <v>0.1902283467338055</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4170339456351257</v>
+        <v>0.4018823483246194</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.909297034994324</v>
+        <v>4.011886668958141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.750222116487407</v>
+        <v>3.390435809066787</v>
       </c>
       <c r="C2">
-        <v>0.2192118439806734</v>
+        <v>0.4606849029630098</v>
       </c>
       <c r="D2">
-        <v>0.1574119317645426</v>
+        <v>0.08024414560394177</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.622827736906565</v>
+        <v>0.7489939045798764</v>
       </c>
       <c r="G2">
-        <v>0.002480119020032568</v>
+        <v>0.0008081405716050456</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1934229518229458</v>
+        <v>0.0633561009617809</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.387088195569774</v>
+        <v>0.3582534864456761</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.057269817091935</v>
+        <v>1.847303761736868</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.618498293285825</v>
+        <v>2.950156602216794</v>
       </c>
       <c r="C3">
-        <v>0.2043767215185426</v>
+        <v>0.4164962990531649</v>
       </c>
       <c r="D3">
-        <v>0.1564843848184054</v>
+        <v>0.07478223057321287</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.634538893414614</v>
+        <v>0.7318503025393071</v>
       </c>
       <c r="G3">
-        <v>0.002483291928523048</v>
+        <v>0.0008129612514499321</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1957603801878491</v>
+        <v>0.0668380840963767</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3773004141941527</v>
+        <v>0.3189310847414504</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.093746855057077</v>
+        <v>1.817843985146084</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.537787685808667</v>
+        <v>2.680629786366751</v>
       </c>
       <c r="C4">
-        <v>0.1952354047396625</v>
+        <v>0.389400424088393</v>
       </c>
       <c r="D4">
-        <v>0.1559558209057244</v>
+        <v>0.07148297536556925</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.642764320481668</v>
+        <v>0.7233074844750291</v>
       </c>
       <c r="G4">
-        <v>0.002485344211505129</v>
+        <v>0.0008160159659007657</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1972807045931555</v>
+        <v>0.06910875448170284</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3714090804819818</v>
+        <v>0.2950003807408166</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.118959615442549</v>
+        <v>1.805422875774497</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.504941787659163</v>
+        <v>2.570951221441589</v>
       </c>
       <c r="C5">
-        <v>0.1915023352285345</v>
+        <v>0.3783639060209794</v>
       </c>
       <c r="D5">
-        <v>0.1557507713086181</v>
+        <v>0.07015142491665927</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.646376262184276</v>
+        <v>0.7203000982040351</v>
       </c>
       <c r="G5">
-        <v>0.002486206790660644</v>
+        <v>0.0008172851390950434</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1979216660656231</v>
+        <v>0.07006665174042137</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3690382740585392</v>
+        <v>0.2852967081386737</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.129941222172448</v>
+        <v>1.80171298219264</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.499490487914898</v>
+        <v>2.552747276541425</v>
       </c>
       <c r="C6">
-        <v>0.1908819919798646</v>
+        <v>0.3765315132566514</v>
       </c>
       <c r="D6">
-        <v>0.1557173491299366</v>
+        <v>0.06993108138438231</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.64699172131369</v>
+        <v>0.7198286433112813</v>
       </c>
       <c r="G6">
-        <v>0.002486351609500339</v>
+        <v>0.000817497369804002</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1980293910346829</v>
+        <v>0.07022765520982599</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3686464184814469</v>
+        <v>0.2836881860033174</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.131807398497898</v>
+        <v>1.801176535209635</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.537344532389</v>
+        <v>2.679150051847103</v>
       </c>
       <c r="C7">
-        <v>0.1951850909314601</v>
+        <v>0.389251565224896</v>
       </c>
       <c r="D7">
-        <v>0.1559530135882241</v>
+        <v>0.07146496624651633</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.64281197984613</v>
+        <v>0.7232650389780062</v>
       </c>
       <c r="G7">
-        <v>0.002485355738162554</v>
+        <v>0.0008160329831011252</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1972892620951763</v>
+        <v>0.06912154211947819</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3713769854017528</v>
+        <v>0.2948693249879568</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.119104854912337</v>
+        <v>1.805367463389899</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.704769949813283</v>
+        <v>3.238430777943563</v>
       </c>
       <c r="C8">
-        <v>0.2141035887891007</v>
+        <v>0.4454387814036807</v>
       </c>
       <c r="D8">
-        <v>0.1570836408566194</v>
+        <v>0.07834912117972692</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.626650877250228</v>
+        <v>0.7426557388683221</v>
       </c>
       <c r="G8">
-        <v>0.002481191479799365</v>
+        <v>0.0008097833851664626</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1942112333832888</v>
+        <v>0.06452865417475095</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.383688901539557</v>
+        <v>0.3446474743508077</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.069262197124914</v>
+        <v>1.835924410407102</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.034356300985678</v>
+        <v>4.343912839674488</v>
       </c>
       <c r="C9">
-        <v>0.2509352986814122</v>
+        <v>0.5561006445453245</v>
       </c>
       <c r="D9">
-        <v>0.1596239287292249</v>
+        <v>0.09231748581453303</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.603178052057622</v>
+        <v>0.7976126219579953</v>
       </c>
       <c r="G9">
-        <v>0.002473847774827639</v>
+        <v>0.0007982553401861749</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1888502407347907</v>
+        <v>0.05661263757471069</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4087653715356367</v>
+        <v>0.4442204580274449</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.993901416013443</v>
+        <v>1.944333363983418</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.277206422397001</v>
+        <v>5.165020491274049</v>
       </c>
       <c r="C10">
-        <v>0.2778224170957628</v>
+        <v>0.637995194194616</v>
       </c>
       <c r="D10">
-        <v>0.1616851469138112</v>
+        <v>0.1029220810167928</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.590956812850067</v>
+        <v>0.8500902312330254</v>
       </c>
       <c r="G10">
-        <v>0.002468948619980131</v>
+        <v>0.0007901922091388958</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.185322255122065</v>
+        <v>0.05151684686902058</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4277510959313133</v>
+        <v>0.5189735513961153</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.952234099686763</v>
+        <v>2.05878344411812</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.387825285270878</v>
+        <v>5.541375561373968</v>
       </c>
       <c r="C11">
-        <v>0.2900145468788082</v>
+        <v>0.6754534824260077</v>
       </c>
       <c r="D11">
-        <v>0.1626647376977175</v>
+        <v>0.1078343502078241</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.586491067096347</v>
+        <v>0.8770203596505297</v>
       </c>
       <c r="G11">
-        <v>0.002466826543717578</v>
+        <v>0.0007866035420628037</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1838063052253265</v>
+        <v>0.04936824776896387</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4365089945096656</v>
+        <v>0.5534254652275479</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.936265770853993</v>
+        <v>2.119673455005056</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.42973305689452</v>
+        <v>5.684376788030249</v>
       </c>
       <c r="C12">
-        <v>0.2946255729230245</v>
+        <v>0.6896739294695067</v>
       </c>
       <c r="D12">
-        <v>0.1630416717799363</v>
+        <v>0.1097084025901935</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.584957517215685</v>
+        <v>0.8876967997221783</v>
       </c>
       <c r="G12">
-        <v>0.002466038211972505</v>
+        <v>0.0007852552266159303</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1832450360204323</v>
+        <v>0.0485802153207775</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4398426609871819</v>
+        <v>0.5665444816887515</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.930649393887961</v>
+        <v>2.144115476565503</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.420706664461477</v>
+        <v>5.653556104319989</v>
       </c>
       <c r="C13">
-        <v>0.293632771198105</v>
+        <v>0.6866095999878894</v>
       </c>
       <c r="D13">
-        <v>0.1629602268480639</v>
+        <v>0.1093041542376767</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.585280784406663</v>
+        <v>0.8853754986464537</v>
       </c>
       <c r="G13">
-        <v>0.002466207316121626</v>
+        <v>0.0007855451502959469</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1833653466698131</v>
+        <v>0.04874877337273986</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.439123932465975</v>
+        <v>0.5637156824424636</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.931839818627168</v>
+        <v>2.138787946648847</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.391272697619286</v>
+        <v>5.553130199147972</v>
       </c>
       <c r="C14">
-        <v>0.2903940179037647</v>
+        <v>0.6766226504149415</v>
       </c>
       <c r="D14">
-        <v>0.1626956286162908</v>
+        <v>0.1079882441569922</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.586361742436466</v>
+        <v>0.877888891122268</v>
       </c>
       <c r="G14">
-        <v>0.002466761381977063</v>
+        <v>0.0007864924067673068</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1837598729912777</v>
+        <v>0.04930289555875156</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4367829128038068</v>
+        <v>0.5545032629977698</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.935795074621552</v>
+        <v>2.121655877792449</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.37324593179477</v>
+        <v>5.491681825558317</v>
       </c>
       <c r="C15">
-        <v>0.2884094158258392</v>
+        <v>0.6705102203869728</v>
       </c>
       <c r="D15">
-        <v>0.1625343325481339</v>
+        <v>0.1071840565300448</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.587044383053851</v>
+        <v>0.87336666214307</v>
       </c>
       <c r="G15">
-        <v>0.00246710274761001</v>
+        <v>0.0007870739898829423</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1840031970718385</v>
+        <v>0.04964568254938584</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4353512103279371</v>
+        <v>0.548870142849907</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.938273875793243</v>
+        <v>2.111345847367602</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.269979963226774</v>
+        <v>5.140488154409979</v>
       </c>
       <c r="C16">
-        <v>0.2770248259375592</v>
+        <v>0.6355518522503019</v>
       </c>
       <c r="D16">
-        <v>0.1616219682409152</v>
+        <v>0.1026029276768554</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.591270690431656</v>
+        <v>0.8483950663923707</v>
       </c>
       <c r="G16">
-        <v>0.002469089441059445</v>
+        <v>0.0007904282682395558</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.185423115661175</v>
+        <v>0.05166077593908547</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4271811693815835</v>
+        <v>0.5167317416759545</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.953337850201791</v>
+        <v>2.054991367585899</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.206665333199453</v>
+        <v>4.925819463076323</v>
       </c>
       <c r="C17">
-        <v>0.2700305801081981</v>
+        <v>0.6141627045888924</v>
       </c>
       <c r="D17">
-        <v>0.1610729696767308</v>
+        <v>0.09981596428581696</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.594143708839454</v>
+        <v>0.8338856577260145</v>
       </c>
       <c r="G17">
-        <v>0.00247033545742455</v>
+        <v>0.0007925057900543031</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1863169696901767</v>
+        <v>0.05294122358370856</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4222000213632526</v>
+        <v>0.4971361175563658</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.963344732524575</v>
+        <v>2.022759257637915</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.170262214059733</v>
+        <v>4.802609008892603</v>
       </c>
       <c r="C18">
-        <v>0.2660040239807415</v>
+        <v>0.6018790175829167</v>
       </c>
       <c r="D18">
-        <v>0.1607611497901331</v>
+        <v>0.0982211994954767</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.595899127734071</v>
+        <v>0.8258255370987655</v>
       </c>
       <c r="G18">
-        <v>0.002471062168678399</v>
+        <v>0.0007937082381902916</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1868394632790302</v>
+        <v>0.05369357902549865</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4193464155508622</v>
+        <v>0.4859066872840856</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.969381452574538</v>
+        <v>2.005043524000541</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.157939173533293</v>
+        <v>4.76093470832501</v>
       </c>
       <c r="C19">
-        <v>0.2646400824144166</v>
+        <v>0.5977230110291032</v>
       </c>
       <c r="D19">
-        <v>0.1606562526672519</v>
+        <v>0.09768261679587908</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.596511153913298</v>
+        <v>0.8231443869062218</v>
       </c>
       <c r="G19">
-        <v>0.002471309946452499</v>
+        <v>0.0007941166791771698</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1870178086774352</v>
+        <v>0.05395100464486546</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4183822005863362</v>
+        <v>0.4821114634390256</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.971473616725632</v>
+        <v>1.999183332723049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.213403872320043</v>
+        <v>4.948643732210201</v>
       </c>
       <c r="C20">
-        <v>0.2707755093222488</v>
+        <v>0.6164376267212219</v>
       </c>
       <c r="D20">
-        <v>0.1611310030769459</v>
+        <v>0.1001117818721582</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.593827215952203</v>
+        <v>0.8354004092242633</v>
       </c>
       <c r="G20">
-        <v>0.002470201778706084</v>
+        <v>0.0007922838621365336</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1862209509104282</v>
+        <v>0.05280326611151231</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4227290926379226</v>
+        <v>0.499217754540112</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.962250390053129</v>
+        <v>2.026104406138415</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.39991767299955</v>
+        <v>5.582613947149014</v>
       </c>
       <c r="C21">
-        <v>0.2913454796458836</v>
+        <v>0.6795550333605433</v>
       </c>
       <c r="D21">
-        <v>0.1627731854797929</v>
+        <v>0.1083743720014283</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.586039961521095</v>
+        <v>0.8800745747890488</v>
       </c>
       <c r="G21">
-        <v>0.002466598225905713</v>
+        <v>0.0007862138923253583</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1836436440007212</v>
+        <v>0.04913943158016743</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4374700606148139</v>
+        <v>0.5572071249696933</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.934621628526401</v>
+        <v>2.126649447044372</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.521923917597803</v>
+        <v>5.999810319915184</v>
       </c>
       <c r="C22">
-        <v>0.304754814597004</v>
+        <v>0.7210180474854724</v>
       </c>
       <c r="D22">
-        <v>0.1638813068799223</v>
+        <v>0.1138560021029278</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.581868868056631</v>
+        <v>0.9120816953447388</v>
       </c>
       <c r="G22">
-        <v>0.002464331965259768</v>
+        <v>0.0007823084048267962</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1820337628186319</v>
+        <v>0.04689473087560714</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4472045394236517</v>
+        <v>0.5955355564739762</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.919074303557466</v>
+        <v>2.200490713537476</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.456797617723453</v>
+        <v>5.776855858251452</v>
       </c>
       <c r="C23">
-        <v>0.2976012286509331</v>
+        <v>0.6988667530025339</v>
       </c>
       <c r="D23">
-        <v>0.1632867068651649</v>
+        <v>0.1109224675992166</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.584010949660509</v>
+        <v>0.8947280811629099</v>
       </c>
       <c r="G23">
-        <v>0.002465533403548874</v>
+        <v>0.0007843874708399616</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1828861672900146</v>
+        <v>0.04807863174411864</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4419999394708753</v>
+        <v>0.5750366461109309</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.927142222324818</v>
+        <v>2.160295814606457</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.210357387024317</v>
+        <v>4.938324245979913</v>
       </c>
       <c r="C24">
-        <v>0.2704387438494678</v>
+        <v>0.6154090937326373</v>
       </c>
       <c r="D24">
-        <v>0.1611047543171225</v>
+        <v>0.09997801947749707</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.593969979436423</v>
+        <v>0.8347147160644255</v>
       </c>
       <c r="G24">
-        <v>0.002470262182646695</v>
+        <v>0.0007923841705856524</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1862643341962045</v>
+        <v>0.05286558628835003</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4224898679720752</v>
+        <v>0.498276533865905</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.962744258856304</v>
+        <v>2.024589534746468</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.945066143162308</v>
+        <v>4.043562800951349</v>
       </c>
       <c r="C25">
-        <v>0.2410010339577866</v>
+        <v>0.5260830706801869</v>
       </c>
       <c r="D25">
-        <v>0.1589023406372263</v>
+        <v>0.0884829453697904</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.608646749576579</v>
+        <v>0.7807568308232362</v>
       </c>
       <c r="G25">
-        <v>0.002475746926812517</v>
+        <v>0.0008012997758241047</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1902283467338055</v>
+        <v>0.05863190198093093</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4018823483246194</v>
+        <v>0.4170339456351684</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.011886668958141</v>
+        <v>1.909297034994296</v>
       </c>
     </row>
   </sheetData>
